--- a/excels/CardHero.xlsx
+++ b/excels/CardHero.xlsx
@@ -1,125 +1,686 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AcardGame\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A891BD-F09B-4311-AE28-8A221239E095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>id:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
   </si>
   <si>
     <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
   </si>
   <si>
     <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能1名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能2名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>arrmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ability1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ability2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_zuus</t>
+  </si>
+  <si>
+    <t>SmallSkill_leiji</t>
+  </si>
+  <si>
+    <t>TrickSkill_leishenzhinu</t>
+  </si>
+  <si>
+    <t>宙斯</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_legion_commander</t>
+  </si>
+  <si>
+    <t>SmallSkill_juedou</t>
+  </si>
+  <si>
+    <t>TrickSkill_qianggong</t>
+  </si>
+  <si>
+    <t>军团</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_sniper</t>
+  </si>
+  <si>
+    <t>SmallSkill_baotou</t>
+  </si>
+  <si>
+    <t>TrickSkill_ansha</t>
+  </si>
+  <si>
+    <t>火枪</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>SmallSkill_huanyingtuxi</t>
+  </si>
+  <si>
+    <t>TrickSkill_encijietuo</t>
+  </si>
+  <si>
+    <t>幻影刺客</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_axe</t>
+  </si>
+  <si>
+    <t>SmallSkill_taotaizhiren</t>
+  </si>
+  <si>
+    <t>TrickSkill_kuangzhanshizhihou</t>
+  </si>
+  <si>
+    <t>斧王</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>SmallSkill_yanhanzhuoshao</t>
+  </si>
+  <si>
+    <t>TrickSkill_handongzuzhou</t>
+  </si>
+  <si>
+    <t>冰龙</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_omniknight</t>
+  </si>
+  <si>
+    <t>SmallSkill_xili</t>
+  </si>
+  <si>
+    <t>TrickSkill_shouhutianshi</t>
+  </si>
+  <si>
+    <t>全能骑士</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_luna</t>
+  </si>
+  <si>
+    <t>SmallSkill_longpizhan</t>
+  </si>
+  <si>
+    <t>TrickSkill_mieshenzhan</t>
+  </si>
+  <si>
+    <t>露娜</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_enigma</t>
+  </si>
+  <si>
+    <t>SmallSkill_emozhuanhua</t>
+  </si>
+  <si>
+    <t>TrickSkill_heidong</t>
+  </si>
+  <si>
+    <t>谜团</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_windrunner</t>
+  </si>
+  <si>
+    <t>SmallSkill_suboji</t>
+  </si>
+  <si>
+    <t>TrickSkill_jizhonghuoli</t>
+  </si>
+  <si>
+    <t>风行者</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_furion</t>
+  </si>
+  <si>
+    <t>SmallSkill_chuansong</t>
+  </si>
+  <si>
+    <t>TrickSkill_zirandezhaohuan</t>
+  </si>
+  <si>
+    <t>先知</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_kunkka</t>
+  </si>
+  <si>
+    <t>SmallSkill_hongliu</t>
+  </si>
+  <si>
+    <t>TrickSkill_youlingchuan</t>
+  </si>
+  <si>
+    <t>昆卡</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_terrorblade</t>
+  </si>
+  <si>
+    <t>SmallSkill_huohuan</t>
+  </si>
+  <si>
+    <t>TrickSkill_hunduan</t>
+  </si>
+  <si>
+    <t>恐怖利刃</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_tidehunter</t>
+  </si>
+  <si>
+    <t>SmallSkill_julang</t>
+  </si>
+  <si>
+    <t>TrickSkill_huimie</t>
+  </si>
+  <si>
+    <t>潮汐</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_keeper_of_the_light</t>
+  </si>
+  <si>
+    <t>SmallSkill_zhimangzhiguang</t>
+  </si>
+  <si>
+    <t>TrickSkill_chongjibo</t>
+  </si>
+  <si>
+    <t>光法</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_pugna</t>
+  </si>
+  <si>
+    <t>SmallSkill_shengmingjiqu</t>
+  </si>
+  <si>
+    <t>TrickSkill_youminghongbao</t>
+  </si>
+  <si>
+    <t>帕格纳</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_spirit_breaker</t>
+  </si>
+  <si>
+    <t>SmallSkill_julizhongji</t>
+  </si>
+  <si>
+    <t>TrickSkill_anyingchongchi</t>
+  </si>
+  <si>
+    <t>裂魂人</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_rattletrap</t>
+  </si>
+  <si>
+    <t>SmallSkill_zhaominghuojian</t>
+  </si>
+  <si>
+    <t>TrickSkill_fashegouzhua</t>
+  </si>
+  <si>
+    <t>发条</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_beastmaster</t>
+  </si>
+  <si>
+    <t>SmallSkill_yexingzhaohuanyezhu</t>
+  </si>
+  <si>
+    <t>TrickSkill_yexingzhaohuanzhanying</t>
+  </si>
+  <si>
+    <t>兽王</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_tinker</t>
+  </si>
+  <si>
+    <t>SmallSkill_redaofeidan</t>
+  </si>
+  <si>
+    <t>TrickSkill_jixiexingjun</t>
+  </si>
+  <si>
+    <t>修补匠</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="新宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,24 +688,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -193,7 +1061,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -228,7 +1096,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -402,103 +1270,602 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:8">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excels/CardHero.xlsx
+++ b/excels/CardHero.xlsx
@@ -310,11 +310,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +335,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -342,10 +371,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,14 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -372,119 +478,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -495,187 +488,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,35 +708,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,7 +749,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,151 +768,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1279,7 +1272,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1289,6 +1282,7 @@
     <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1345,7 +1339,7 @@
     </row>
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -1371,7 +1365,7 @@
     </row>
     <row r="4" ht="16.5" spans="1:8">
       <c r="A4">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
@@ -1397,7 +1391,7 @@
     </row>
     <row r="5" ht="16.5" spans="1:8">
       <c r="A5">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1423,7 +1417,7 @@
     </row>
     <row r="6" ht="16.5" spans="1:8">
       <c r="A6">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -1449,7 +1443,7 @@
     </row>
     <row r="7" ht="16.5" spans="1:8">
       <c r="A7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
@@ -1475,7 +1469,7 @@
     </row>
     <row r="8" ht="16.5" spans="1:8">
       <c r="A8">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
@@ -1501,7 +1495,7 @@
     </row>
     <row r="9" ht="16.5" spans="1:8">
       <c r="A9">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>40</v>
@@ -1527,7 +1521,7 @@
     </row>
     <row r="10" ht="16.5" spans="1:8">
       <c r="A10">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
@@ -1553,7 +1547,7 @@
     </row>
     <row r="11" ht="16.5" spans="1:8">
       <c r="A11">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>48</v>
@@ -1579,7 +1573,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:8">
       <c r="A12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>52</v>
@@ -1605,7 +1599,7 @@
     </row>
     <row r="13" ht="16.5" spans="1:8">
       <c r="A13">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>56</v>
@@ -1631,7 +1625,7 @@
     </row>
     <row r="14" ht="16.5" spans="1:8">
       <c r="A14">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>60</v>
@@ -1657,7 +1651,7 @@
     </row>
     <row r="15" ht="16.5" spans="1:8">
       <c r="A15">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>64</v>
@@ -1683,7 +1677,7 @@
     </row>
     <row r="16" ht="16.5" spans="1:8">
       <c r="A16">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>68</v>
@@ -1709,7 +1703,7 @@
     </row>
     <row r="17" ht="16.5" spans="1:8">
       <c r="A17">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>72</v>
@@ -1735,7 +1729,7 @@
     </row>
     <row r="18" ht="16.5" spans="1:8">
       <c r="A18">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>76</v>
@@ -1761,7 +1755,7 @@
     </row>
     <row r="19" ht="16.5" spans="1:8">
       <c r="A19">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>80</v>
@@ -1787,7 +1781,7 @@
     </row>
     <row r="20" ht="16.5" spans="1:8">
       <c r="A20">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>84</v>
@@ -1813,7 +1807,7 @@
     </row>
     <row r="21" ht="16.5" spans="1:8">
       <c r="A21">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>88</v>
@@ -1839,7 +1833,7 @@
     </row>
     <row r="22" ht="16.5" spans="1:8">
       <c r="A22">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>92</v>

--- a/excels/CardHero.xlsx
+++ b/excels/CardHero.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AcardGame\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB746F5-611E-486F-86C5-C67BD6C1E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17865"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,9 +154,6 @@
     <t>全能骑士</t>
   </si>
   <si>
-    <t>npc_dota_hero_luna</t>
-  </si>
-  <si>
     <t>SmallSkill_longpizhan</t>
   </si>
   <si>
@@ -302,19 +305,17 @@
   </si>
   <si>
     <t>修补匠</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_lina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,345 +336,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -696,253 +381,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -950,62 +393,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1263,19 +663,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="42.875" customWidth="1"/>
@@ -1285,7 +685,7 @@
     <col min="9" max="9" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>22</v>
       </c>
@@ -1363,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>104</v>
       </c>
@@ -1389,7 +789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>35</v>
       </c>
@@ -1415,7 +815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:8">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>44</v>
       </c>
@@ -1441,7 +841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:8">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1467,7 +867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:8">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>112</v>
       </c>
@@ -1493,7 +893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:8">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>57</v>
       </c>
@@ -1519,12 +919,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:8">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
+      <c r="B10" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
@@ -1536,21 +936,21 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:8">
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -1562,21 +962,21 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:8">
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -1588,21 +988,21 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>54</v>
       </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:8">
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -1614,21 +1014,21 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>58</v>
       </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:8">
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -1640,21 +1040,21 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
         <v>61</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="H14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:8">
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -1666,21 +1066,21 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>66</v>
       </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:8">
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
@@ -1692,21 +1092,21 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
         <v>69</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>70</v>
       </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:8">
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
@@ -1718,21 +1118,21 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
         <v>73</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>74</v>
       </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:8">
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2">
         <v>6</v>
@@ -1744,21 +1144,21 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
         <v>77</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:8">
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2">
         <v>7</v>
@@ -1770,21 +1170,21 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
         <v>81</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>82</v>
       </c>
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:8">
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1796,21 +1196,21 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
         <v>85</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>86</v>
       </c>
-      <c r="H20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:8">
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
@@ -1822,21 +1222,21 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
         <v>89</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>90</v>
       </c>
-      <c r="H21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:8">
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
@@ -1848,18 +1248,18 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
         <v>93</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>94</v>
       </c>
-      <c r="H22" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excels/CardHero.xlsx
+++ b/excels/CardHero.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AcardGame\excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB746F5-611E-486F-86C5-C67BD6C1E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>id:</t>
   </si>
@@ -154,13 +148,16 @@
     <t>全能骑士</t>
   </si>
   <si>
-    <t>SmallSkill_longpizhan</t>
+    <t>npc_dota_hero_lina</t>
+  </si>
+  <si>
+    <t>SmallSkill_guangjizhen</t>
   </si>
   <si>
     <t>TrickSkill_mieshenzhan</t>
   </si>
   <si>
-    <t>露娜</t>
+    <t>丽娜</t>
   </si>
   <si>
     <t>npc_dota_hero_enigma</t>
@@ -202,7 +199,7 @@
     <t>npc_dota_hero_kunkka</t>
   </si>
   <si>
-    <t>SmallSkill_hongliu</t>
+    <t>SmallSkill_shuidao</t>
   </si>
   <si>
     <t>TrickSkill_youlingchuan</t>
@@ -250,7 +247,7 @@
     <t>npc_dota_hero_pugna</t>
   </si>
   <si>
-    <t>SmallSkill_shengmingjiqu</t>
+    <t>SmallSkill_shuailao</t>
   </si>
   <si>
     <t>TrickSkill_youminghongbao</t>
@@ -298,7 +295,7 @@
     <t>npc_dota_hero_tinker</t>
   </si>
   <si>
-    <t>SmallSkill_redaofeidan</t>
+    <t>SmallSkill_jiguang</t>
   </si>
   <si>
     <t>TrickSkill_jixiexingjun</t>
@@ -307,15 +304,77 @@
     <t>修补匠</t>
   </si>
   <si>
-    <t>npc_dota_hero_lina</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>npc_dota_hero_drow_ranger</t>
+  </si>
+  <si>
+    <t>SmallSkill_kuangfeng</t>
+  </si>
+  <si>
+    <t>TrickSkill_sheshoutianfu</t>
+  </si>
+  <si>
+    <t>卓尔游侠</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_ancient_apparition</t>
+  </si>
+  <si>
+    <t>SmallSkill_bingshuangxuanwo</t>
+  </si>
+  <si>
+    <t>TrickSkill_bingjinghongbao</t>
+  </si>
+  <si>
+    <t>远古冰魂</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_chen</t>
+  </si>
+  <si>
+    <t>SmallSkill_shenshengquanhua</t>
+  </si>
+  <si>
+    <t>TrickSkill_shangdizhishou</t>
+  </si>
+  <si>
+    <t>陈</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_necrolyte</t>
+  </si>
+  <si>
+    <t>SmallSkill_siwangmaichong</t>
+  </si>
+  <si>
+    <t>TrickSkill_sishenliandao</t>
+  </si>
+  <si>
+    <t>死灵法师</t>
+  </si>
+  <si>
+    <t>npc_dota_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>SmallSkill_huojiandanmu</t>
+  </si>
+  <si>
+    <t>TrickSkill_zhaohuanfeidan</t>
+  </si>
+  <si>
+    <t>矮人直升机</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,29 +395,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -381,11 +763,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -393,19 +1017,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -663,19 +1340,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="42.875" customWidth="1"/>
@@ -685,7 +1362,7 @@
     <col min="9" max="9" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +1388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -737,7 +1414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3">
         <v>22</v>
       </c>
@@ -751,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -763,7 +1440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4">
         <v>104</v>
       </c>
@@ -771,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -789,7 +1466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5">
         <v>35</v>
       </c>
@@ -815,7 +1492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6">
         <v>44</v>
       </c>
@@ -823,13 +1500,13 @@
         <v>28</v>
       </c>
       <c r="C6" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -841,7 +1518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7">
         <v>2</v>
       </c>
@@ -849,7 +1526,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -867,7 +1544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:8">
       <c r="A8">
         <v>112</v>
       </c>
@@ -875,7 +1552,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -893,7 +1570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9">
         <v>57</v>
       </c>
@@ -919,90 +1596,90 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:8">
       <c r="A10">
         <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13">
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
         <v>6</v>
@@ -1014,21 +1691,21 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -1037,27 +1714,27 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15">
         <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -1066,21 +1743,21 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
@@ -1092,47 +1769,47 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17">
         <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18">
         <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2">
         <v>6</v>
@@ -1144,24 +1821,24 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19">
         <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1170,21 +1847,21 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20">
         <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -1193,24 +1870,24 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
@@ -1219,24 +1896,24 @@
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22">
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
@@ -1245,21 +1922,151 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:8">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:8">
+      <c r="A24" s="4">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:8">
+      <c r="A25" s="4">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:8">
+      <c r="A26" s="4">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:8">
+      <c r="A27" s="4">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>